--- a/22236-MDSC-103-Assignment 2-Reddy-Mikks-Problem.xlsx
+++ b/22236-MDSC-103-Assignment 2-Reddy-Mikks-Problem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Msc 1\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED5C2F5-7F5B-4337-827A-E5912F801FDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08421C7-DEB3-4C47-8AF6-8CD298F149DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{9FB3F801-0B22-491B-9E7D-32C148A5D540}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="27">
   <si>
     <t>Reddy Mikks Problem</t>
   </si>
@@ -1227,15 +1227,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:colOff>133349</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:rowOff>71436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1262,23 +1262,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Freeform: Shape 3">
+        <xdr:cNvPr id="3" name="Freeform: Shape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F825DE59-81FC-49F5-8BD6-840535D11EF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F07B976-490E-408B-90B1-DCB1BD7A5461}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1286,26 +1286,26 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5095875" y="2571750"/>
-          <a:ext cx="1876425" cy="666750"/>
+          <a:off x="5705475" y="3248025"/>
+          <a:ext cx="2466975" cy="962025"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst>
-            <a:gd name="connsiteX0" fmla="*/ 514350 w 1876425"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 666750"/>
-            <a:gd name="connsiteX1" fmla="*/ 0 w 1876425"/>
-            <a:gd name="connsiteY1" fmla="*/ 342900 h 666750"/>
-            <a:gd name="connsiteX2" fmla="*/ 28575 w 1876425"/>
-            <a:gd name="connsiteY2" fmla="*/ 666750 h 666750"/>
-            <a:gd name="connsiteX3" fmla="*/ 1876425 w 1876425"/>
-            <a:gd name="connsiteY3" fmla="*/ 657225 h 666750"/>
-            <a:gd name="connsiteX4" fmla="*/ 1447800 w 1876425"/>
-            <a:gd name="connsiteY4" fmla="*/ 161925 h 666750"/>
-            <a:gd name="connsiteX5" fmla="*/ 990600 w 1876425"/>
-            <a:gd name="connsiteY5" fmla="*/ 9525 h 666750"/>
-            <a:gd name="connsiteX6" fmla="*/ 514350 w 1876425"/>
-            <a:gd name="connsiteY6" fmla="*/ 0 h 666750"/>
+            <a:gd name="connsiteX0" fmla="*/ 619125 w 2466975"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 962025"/>
+            <a:gd name="connsiteX1" fmla="*/ 9525 w 2466975"/>
+            <a:gd name="connsiteY1" fmla="*/ 495300 h 962025"/>
+            <a:gd name="connsiteX2" fmla="*/ 0 w 2466975"/>
+            <a:gd name="connsiteY2" fmla="*/ 962025 h 962025"/>
+            <a:gd name="connsiteX3" fmla="*/ 2466975 w 2466975"/>
+            <a:gd name="connsiteY3" fmla="*/ 942975 h 962025"/>
+            <a:gd name="connsiteX4" fmla="*/ 1847850 w 2466975"/>
+            <a:gd name="connsiteY4" fmla="*/ 247650 h 962025"/>
+            <a:gd name="connsiteX5" fmla="*/ 1190625 w 2466975"/>
+            <a:gd name="connsiteY5" fmla="*/ 0 h 962025"/>
+            <a:gd name="connsiteX6" fmla="*/ 619125 w 2466975"/>
+            <a:gd name="connsiteY6" fmla="*/ 0 h 962025"/>
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst>
@@ -1333,27 +1333,27 @@
           </a:cxnLst>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
-            <a:path w="1876425" h="666750">
+            <a:path w="2466975" h="962025">
               <a:moveTo>
-                <a:pt x="514350" y="0"/>
+                <a:pt x="619125" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="342900"/>
+                <a:pt x="9525" y="495300"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="28575" y="666750"/>
+                <a:pt x="0" y="962025"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="1876425" y="657225"/>
+                <a:pt x="2466975" y="942975"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="1447800" y="161925"/>
+                <a:pt x="1847850" y="247650"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="990600" y="9525"/>
+                <a:pt x="1190625" y="0"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="514350" y="0"/>
+                <a:pt x="619125" y="0"/>
               </a:lnTo>
               <a:close/>
             </a:path>
@@ -1389,14 +1389,44 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1100"/>
-            <a:t>FEASIBLE REGION</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-IN" sz="1100"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0"/>
+            <a:t>              </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>FESIBLE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> REGION</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1453,12 +1483,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.55208</cdr:x>
-      <cdr:y>0.6441</cdr:y>
+      <cdr:x>0.54396</cdr:x>
+      <cdr:y>0.68281</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.80625</cdr:x>
-      <cdr:y>0.73785</cdr:y>
+      <cdr:x>0.79813</cdr:x>
+      <cdr:y>0.77656</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1473,8 +1503,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2524125" y="1766888"/>
-          <a:ext cx="1162050" cy="257175"/>
+          <a:off x="3191650" y="2520209"/>
+          <a:ext cx="1491317" cy="346025"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -1561,12 +1591,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.46042</cdr:x>
-      <cdr:y>0.60243</cdr:y>
+      <cdr:x>0.42146</cdr:x>
+      <cdr:y>0.60759</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.8375</cdr:x>
-      <cdr:y>0.69618</cdr:y>
+      <cdr:x>0.79854</cdr:x>
+      <cdr:y>0.70134</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1581,8 +1611,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2105024" y="1652588"/>
-          <a:ext cx="1724025" cy="257175"/>
+          <a:off x="2472869" y="2242582"/>
+          <a:ext cx="2212479" cy="346026"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -1840,12 +1870,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.0875</cdr:x>
-      <cdr:y>0.68229</cdr:y>
+      <cdr:x>0.1086</cdr:x>
+      <cdr:y>0.72616</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.28125</cdr:x>
-      <cdr:y>0.77604</cdr:y>
+      <cdr:x>0.30235</cdr:x>
+      <cdr:y>0.81991</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1860,8 +1890,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="400049" y="1871663"/>
-          <a:ext cx="885825" cy="257175"/>
+          <a:off x="637223" y="2680216"/>
+          <a:ext cx="1136809" cy="346025"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -1931,11 +1961,11 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.64792</cdr:x>
-      <cdr:y>0.80382</cdr:y>
+      <cdr:y>0.85801</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>0.89583</cdr:x>
-      <cdr:y>0.89757</cdr:y>
+      <cdr:y>0.95176</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1950,8 +1980,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2962274" y="2205038"/>
-          <a:ext cx="1133475" cy="257175"/>
+          <a:off x="3801606" y="3166876"/>
+          <a:ext cx="1454588" cy="346025"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -2294,8 +2324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF67329F-CFB8-49D1-A03F-17EE4843E80B}">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="AP22" sqref="AP22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/22236-MDSC-103-Assignment 2-Reddy-Mikks-Problem.xlsx
+++ b/22236-MDSC-103-Assignment 2-Reddy-Mikks-Problem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Msc 1\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08421C7-DEB3-4C47-8AF6-8CD298F149DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C6C765-F4A1-48E2-953E-23862822E108}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{9FB3F801-0B22-491B-9E7D-32C148A5D540}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
   <si>
     <t>Reddy Mikks Problem</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>Z</t>
-  </si>
-  <si>
-    <t>B</t>
   </si>
   <si>
     <t>Point B</t>
@@ -1583,7 +1580,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>D =(1,2) z=17</a:t>
+            <a:t>D =(1,2) z=13</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -1628,7 +1625,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>C=(2.7,2) z=35</a:t>
+            <a:t>C=(2,2) z=18</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -2325,7 +2322,7 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="AP22" sqref="AP22"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2376,7 +2373,7 @@
         <v>3</v>
       </c>
       <c r="S3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2457,7 +2454,7 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2524,8 +2521,8 @@
         <v>21</v>
       </c>
       <c r="L13" s="3">
-        <f>11*L11+3*L12</f>
-        <v>37.500000000000007</v>
+        <f>5*L11+4*L12</f>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2547,10 +2544,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2561,26 +2555,26 @@
         <v>6</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F16" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G16" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I16" s="1">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="L16" s="2">
         <f t="array" ref="L16:L17">MMULT(MINVERSE(F16:G17),I16:I17)</f>
-        <v>2.666666666666667</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2620,8 +2614,8 @@
         <v>21</v>
       </c>
       <c r="L18" s="3">
-        <f>11*L16+3*L17</f>
-        <v>35.333333333333336</v>
+        <f>5*L16+4*L17</f>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2640,7 +2634,7 @@
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2695,8 +2689,8 @@
         <v>21</v>
       </c>
       <c r="L23" s="3">
-        <f>11*L21+3*L22</f>
-        <v>17</v>
+        <f>5*L21+4*L22</f>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/22236-MDSC-103-Assignment 2-Reddy-Mikks-Problem.xlsx
+++ b/22236-MDSC-103-Assignment 2-Reddy-Mikks-Problem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Msc 1\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C6C765-F4A1-48E2-953E-23862822E108}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D131E226-3994-48B2-ADEC-2D7891EE5F2E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{9FB3F801-0B22-491B-9E7D-32C148A5D540}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="32">
   <si>
     <t>Reddy Mikks Problem</t>
   </si>
@@ -45,9 +45,6 @@
     <t>x+2y&lt;=6</t>
   </si>
   <si>
-    <t>x,y&gt;=0</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -103,6 +100,27 @@
   </si>
   <si>
     <t>therefor max at point B with z value at 38</t>
+  </si>
+  <si>
+    <t>Point A</t>
+  </si>
+  <si>
+    <t>c5</t>
+  </si>
+  <si>
+    <t>Point 0</t>
+  </si>
+  <si>
+    <t>c6</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>x&gt;=0</t>
+  </si>
+  <si>
+    <t>y&gt;=0</t>
   </si>
 </sst>
 </file>
@@ -1403,7 +1421,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>FESIBLE</a:t>
+            <a:t>FEASIBLE</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-IN" sz="1100" b="1" baseline="0">
@@ -2319,10 +2337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF67329F-CFB8-49D1-A03F-17EE4843E80B}">
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2333,10 +2351,10 @@
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
@@ -2361,7 +2379,7 @@
     </row>
     <row r="3" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>6</v>
@@ -2373,12 +2391,12 @@
         <v>3</v>
       </c>
       <c r="S3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2387,7 +2405,7 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K4" t="s">
         <v>4</v>
@@ -2395,7 +2413,7 @@
     </row>
     <row r="5" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K5" t="s">
         <v>5</v>
@@ -2403,16 +2421,19 @@
     </row>
     <row r="6" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="J6" t="s">
         <v>13</v>
       </c>
       <c r="K6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2423,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2437,24 +2458,32 @@
         <v>6</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="K8" t="s">
-        <v>17</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2465,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" s="1">
         <v>6</v>
@@ -2474,13 +2503,13 @@
         <v>4</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I11" s="1">
         <v>24</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L11" s="2">
         <f t="array" ref="L11:L12">MMULT(MINVERSE(F11:G12),I11:I12)</f>
@@ -2495,7 +2524,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
@@ -2504,13 +2533,13 @@
         <v>2</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I12" s="1">
         <v>6</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L12" s="2">
         <v>1.5</v>
@@ -2518,7 +2547,7 @@
     </row>
     <row r="13" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L13" s="3">
         <f>5*L11+4*L12</f>
@@ -2527,13 +2556,13 @@
     </row>
     <row r="14" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2544,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2555,7 +2584,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
@@ -2564,13 +2593,13 @@
         <v>2</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I16" s="1">
         <v>6</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L16" s="2">
         <f t="array" ref="L16:L17">MMULT(MINVERSE(F16:G17),I16:I17)</f>
@@ -2579,7 +2608,7 @@
     </row>
     <row r="17" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -2588,13 +2617,13 @@
         <v>1</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I17" s="1">
         <v>2</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L17" s="2">
         <v>2</v>
@@ -2602,16 +2631,16 @@
     </row>
     <row r="18" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
         <v>12</v>
       </c>
-      <c r="C18" t="s">
-        <v>13</v>
-      </c>
       <c r="K18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L18" s="3">
         <f>5*L16+4*L17</f>
@@ -2634,12 +2663,12 @@
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F21" s="1">
         <v>-1</v>
@@ -2648,13 +2677,13 @@
         <v>1</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I21" s="1">
         <v>1</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L21" s="2">
         <f t="array" ref="L21:L22">MMULT(MINVERSE(F21:G22),I21:I22)</f>
@@ -2663,7 +2692,7 @@
     </row>
     <row r="22" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -2672,13 +2701,13 @@
         <v>1</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I22" s="1">
         <v>2</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L22" s="2">
         <v>2</v>
@@ -2686,11 +2715,133 @@
     </row>
     <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L23" s="3">
         <f>5*L21+4*L22</f>
         <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="1">
+        <v>6</v>
+      </c>
+      <c r="G26" s="1">
+        <v>4</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="1">
+        <v>24</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L26" s="2">
+        <f t="array" ref="L26:L27">MMULT(MINVERSE(F26:G27),I26:I27)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="3">
+        <f>5*L26+4*L27</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L32" s="2">
+        <f t="array" ref="L32:L33">MMULT(MINVERSE(F32:G33),I32:I33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" s="3">
+        <f>5*L32+4*L33</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
